--- a/tests/data/testCounter.xlsx
+++ b/tests/data/testCounter.xlsx
@@ -3,11 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16500" windowWidth="28800" xWindow="0" yWindow="460"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16460" windowWidth="28800" xWindow="0" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="trading_journal" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="calculated_trades" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="outsheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,8 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="164"/>
+  <numFmts count="2">
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -134,7 +135,7 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -151,8 +152,7 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -433,7 +433,7 @@
   <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -606,7 +606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,175 +630,23 @@
           <t>strat</t>
         </is>
       </c>
-      <c r="E1" s="13" t="inlineStr">
-        <is>
-          <t>entry</t>
-        </is>
-      </c>
-      <c r="F1" s="13" t="inlineStr">
-        <is>
-          <t>outcome</t>
-        </is>
-      </c>
-      <c r="G1" s="13" t="inlineStr">
-        <is>
-          <t>trend_i</t>
-        </is>
-      </c>
-      <c r="H1" s="13" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="I1" s="13" t="inlineStr">
-        <is>
-          <t>timeframe</t>
-        </is>
-      </c>
-      <c r="J1" s="13" t="inlineStr">
-        <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="K1" s="13" t="inlineStr">
-        <is>
-          <t>TP</t>
-        </is>
-      </c>
-      <c r="L1" s="13" t="inlineStr">
-        <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="M1" s="13" t="inlineStr">
-        <is>
-          <t>length_candles</t>
-        </is>
-      </c>
-      <c r="N1" s="13" t="inlineStr">
-        <is>
-          <t>length_pips</t>
-        </is>
-      </c>
-      <c r="O1" s="13" t="inlineStr">
-        <is>
-          <t>n_rsibounces</t>
-        </is>
-      </c>
-      <c r="P1" s="13" t="inlineStr">
-        <is>
-          <t>rsibounces_lengths</t>
-        </is>
-      </c>
-      <c r="Q1" s="13" t="inlineStr">
-        <is>
-          <t>bounces</t>
-        </is>
-      </c>
-      <c r="R1" s="13" t="inlineStr">
-        <is>
-          <t>bounces_lasttime</t>
-        </is>
-      </c>
-      <c r="S1" s="13" t="inlineStr">
-        <is>
-          <t>entry_onrsi</t>
-        </is>
-      </c>
-      <c r="T1" s="13" t="inlineStr">
-        <is>
-          <t>last_time</t>
-        </is>
-      </c>
-      <c r="U1" s="13" t="inlineStr">
-        <is>
-          <t>slope</t>
-        </is>
-      </c>
-      <c r="V1" s="13" t="inlineStr">
-        <is>
-          <t>divergence</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>GBP_AUD 11OCT2018H12</t>
         </is>
       </c>
-      <c r="C2" s="15" t="n">
+      <c r="C2" s="14" t="n">
         <v>43384.875</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>counter</t>
         </is>
-      </c>
-      <c r="E2" t="n">
-        <v>1.86016</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G2" s="15" t="n">
-        <v>43320.875</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>H12</t>
-        </is>
-      </c>
-      <c r="J2" s="15" t="n">
-        <v>1.87074</v>
-      </c>
-      <c r="K2" s="15" t="n">
-        <v>1.83942</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.87074</v>
-      </c>
-      <c r="M2" t="n">
-        <v>92</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1259</v>
-      </c>
-      <c r="O2" t="n">
-        <v>4</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>[3, 6, 1, 1]</t>
-        </is>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T2" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="U2" s="15" t="n">
-        <v>0.001207996547631891</v>
-      </c>
-      <c r="V2" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/testCounter.xlsx
+++ b/tests/data/testCounter.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16460" windowWidth="28800" xWindow="0" yWindow="460"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16120" windowWidth="28800" xWindow="0" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="trading_journal" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,10 +17,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="yyyy\-mm\-dd\ hh:mm:ss" numFmtId="164"/>
     <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -95,6 +95,11 @@
       <family val="2"/>
       <color rgb="FF6A8759"/>
       <sz val="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
     <font>
       <b val="1"/>
@@ -114,12 +119,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -135,7 +155,7 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -150,6 +170,10 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -433,7 +457,7 @@
   <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -551,6 +575,43 @@
       </c>
       <c r="K2" s="11" t="n"/>
       <c r="AB2" s="3" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>counter</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>EUR_AUD 04DEC2018D</t>
+        </is>
+      </c>
+      <c r="D3" s="10" t="n">
+        <v>43437.91666666666</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.54334</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.53398</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.55752</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.54123</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="C4" s="12" t="n"/>
@@ -606,33 +667,98 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="13" t="inlineStr">
+      <c r="B1" s="15" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="13" t="inlineStr">
+      <c r="C1" s="15" t="inlineStr">
         <is>
           <t>start</t>
         </is>
       </c>
-      <c r="D1" s="13" t="inlineStr">
+      <c r="D1" s="15" t="inlineStr">
         <is>
           <t>strat</t>
+        </is>
+      </c>
+      <c r="E1" s="15" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="F1" s="15" t="inlineStr">
+        <is>
+          <t>entry</t>
+        </is>
+      </c>
+      <c r="G1" s="15" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="H1" s="15" t="inlineStr">
+        <is>
+          <t>SL</t>
+        </is>
+      </c>
+      <c r="I1" s="15" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="J1" s="15" t="inlineStr">
+        <is>
+          <t>entry_time</t>
+        </is>
+      </c>
+      <c r="K1" s="15" t="inlineStr">
+        <is>
+          <t>outcome</t>
+        </is>
+      </c>
+      <c r="L1" s="15" t="inlineStr">
+        <is>
+          <t>pips</t>
+        </is>
+      </c>
+      <c r="M1" s="15" t="inlineStr">
+        <is>
+          <t>lasttime</t>
+        </is>
+      </c>
+      <c r="N1" s="15" t="inlineStr">
+        <is>
+          <t>pivots</t>
+        </is>
+      </c>
+      <c r="O1" s="15" t="inlineStr">
+        <is>
+          <t>pivots_lasttime</t>
+        </is>
+      </c>
+      <c r="P1" s="15" t="inlineStr">
+        <is>
+          <t>total_score</t>
+        </is>
+      </c>
+      <c r="Q1" s="15" t="inlineStr">
+        <is>
+          <t>score_lasttime</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="n">
+      <c r="A2" s="15" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -640,13 +766,129 @@
           <t>GBP_AUD 11OCT2018H12</t>
         </is>
       </c>
-      <c r="C2" s="14" t="n">
+      <c r="C2" s="16" t="n">
         <v>43384.875</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>counter</t>
         </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1.86016</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.83942</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.87384</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.87074</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2018-10-12T06:30:00</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>207.4</v>
+      </c>
+      <c r="M2" s="16" t="n">
+        <v>42544.375</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>['12/10/2018:09:00']</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>['12/10/2018:09:00']</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>94</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EUR_AUD 04DEC2018D</t>
+        </is>
+      </c>
+      <c r="C3" s="16" t="n">
+        <v>43437.91666666666</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>counter</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1.54334</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.55752</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.53398</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.54123</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2018-12-03T22:00:00</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>141.8</v>
+      </c>
+      <c r="M3" s="16" t="n">
+        <v>43256.875</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>['04/12/2018:22:00']</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>['04/12/2018:22:00']</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/testCounter.xlsx
+++ b/tests/data/testCounter.xlsx
@@ -809,19 +809,19 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>['12/10/2018:09:00']</t>
+          <t>['10/10/2018:09:00']</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>['12/10/2018:09:00']</t>
+          <t>['10/10/2018:09:00']</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q2" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
@@ -876,19 +876,19 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>['04/12/2018:22:00']</t>
+          <t>['29/11/2018:22:00']</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>['04/12/2018:22:00']</t>
+          <t>['29/11/2018:22:00']</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q3" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/testCounter.xlsx
+++ b/tests/data/testCounter.xlsx
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -885,10 +885,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q3" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/testCounter.xlsx
+++ b/tests/data/testCounter.xlsx
@@ -809,16 +809,16 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>['28/02/2014:10:00', '10/10/2018:09:00']</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>['10/10/2018:09:00']</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>['10/10/2018:09:00']</t>
-        </is>
-      </c>
       <c r="P2" t="n">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="Q2" t="n">
         <v>90</v>
@@ -876,16 +876,16 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>['28/01/2016:22:00', '03/06/2018:21:00', '29/11/2018:22:00']</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>['29/11/2018:22:00']</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>['29/11/2018:22:00']</t>
-        </is>
-      </c>
       <c r="P3" t="n">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="Q3" t="n">
         <v>40</v>

--- a/tests/data/testCounter.xlsx
+++ b/tests/data/testCounter.xlsx
@@ -16,9 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt formatCode="yyyy\-mm\-dd\ hh:mm:ss" numFmtId="164"/>
     <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="166"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -30,11 +31,13 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
       <sz val="12"/>
     </font>
     <font>
@@ -91,15 +94,16 @@
       <sz val="12"/>
     </font>
     <font>
-      <name val="Menlo"/>
-      <family val="2"/>
-      <color rgb="FF6A8759"/>
-      <sz val="9"/>
-    </font>
-    <font>
       <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
     <font>
       <b val="1"/>
@@ -155,12 +159,11 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -168,11 +171,15 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -457,77 +464,77 @@
   <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="2" width="12.83203125"/>
-    <col customWidth="1" max="2" min="2" style="2" width="22.83203125"/>
-    <col customWidth="1" max="3" min="3" style="2" width="16.5"/>
-    <col customWidth="1" max="4" min="4" style="2" width="21"/>
-    <col customWidth="1" max="9" min="9" style="2" width="10.83203125"/>
-    <col customWidth="1" max="10" min="10" style="2" width="35"/>
-    <col customWidth="1" max="11" min="11" style="2" width="10.83203125"/>
+    <col customWidth="1" max="1" min="1" style="14" width="12.83203125"/>
+    <col customWidth="1" max="2" min="2" style="14" width="22.83203125"/>
+    <col customWidth="1" max="3" min="3" style="14" width="16.5"/>
+    <col customWidth="1" max="4" min="4" style="14" width="21"/>
+    <col customWidth="1" max="9" min="9" style="14" width="10.83203125"/>
+    <col customWidth="1" max="10" min="10" style="14" width="35"/>
+    <col customWidth="1" max="11" min="11" style="14" width="10.83203125"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>timeframe</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>strat</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="17" t="inlineStr">
         <is>
           <t>start</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="17" t="inlineStr">
         <is>
           <t>entry</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="17" t="inlineStr">
         <is>
           <t>SL</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="17" t="inlineStr">
         <is>
           <t>TP</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="17" t="inlineStr">
         <is>
           <t>SR</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="17" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="17" t="inlineStr">
         <is>
           <t>trend_i</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="17" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
-      <c r="L1" s="5" t="inlineStr">
+      <c r="L1" s="17" t="inlineStr">
         <is>
           <t>outcome</t>
         </is>
@@ -535,7 +542,7 @@
       <c r="AB1" s="1" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>H12</t>
         </is>
@@ -550,7 +557,7 @@
           <t>GBP_AUD 11OCT2018H12</t>
         </is>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="9" t="n">
         <v>43384.875</v>
       </c>
       <c r="E2" t="n">
@@ -570,10 +577,10 @@
           <t>short</t>
         </is>
       </c>
-      <c r="J2" s="10" t="n">
+      <c r="J2" s="9" t="n">
         <v>43320.875</v>
       </c>
-      <c r="K2" s="11" t="n"/>
+      <c r="K2" s="10" t="n"/>
       <c r="AB2" s="3" t="n"/>
     </row>
     <row r="3">
@@ -592,7 +599,7 @@
           <t>EUR_AUD 04DEC2018D</t>
         </is>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="9" t="n">
         <v>43437.91666666666</v>
       </c>
       <c r="E3" t="n">
@@ -613,48 +620,100 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="C4" s="12" t="n"/>
+    <row r="4" s="14">
+      <c r="A4" s="13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>cont</t>
+        </is>
+      </c>
+      <c r="C4" s="13" t="inlineStr">
+        <is>
+          <t>NZD_USD 07NOV2008D</t>
+        </is>
+      </c>
+      <c r="D4" s="15" t="n">
+        <v>39758.91666666666</v>
+      </c>
+      <c r="E4" s="13" t="n">
+        <v>0.58175</v>
+      </c>
+      <c r="F4" s="13" t="n">
+        <v>0.61258</v>
+      </c>
+      <c r="G4" s="13" t="n">
+        <v>0.53732</v>
+      </c>
+      <c r="H4" s="13" t="n">
+        <v>0.59806</v>
+      </c>
+      <c r="I4" s="13" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J4" s="13" t="n"/>
+      <c r="K4" s="13" t="n"/>
+      <c r="L4" s="13" t="n"/>
+      <c r="M4" s="13" t="n"/>
+      <c r="N4" s="13" t="n"/>
+      <c r="O4" s="13" t="n"/>
+      <c r="P4" s="13" t="n"/>
+      <c r="Q4" s="13" t="n"/>
+      <c r="R4" s="13" t="n"/>
+      <c r="S4" s="13" t="n"/>
+      <c r="T4" s="13" t="n"/>
+      <c r="U4" s="13" t="n"/>
+      <c r="V4" s="13" t="n"/>
+      <c r="W4" s="13" t="n"/>
+      <c r="X4" s="13" t="n"/>
+      <c r="Y4" s="13" t="n"/>
+      <c r="Z4" s="13" t="n"/>
+      <c r="AA4" s="13" t="n"/>
     </row>
-    <row r="5">
-      <c r="A5" s="4" t="n"/>
-      <c r="B5" s="4" t="n"/>
-      <c r="C5" s="4" t="n"/>
-      <c r="D5" s="4" t="n"/>
-      <c r="E5" s="4" t="n"/>
-      <c r="F5" s="4" t="n"/>
-      <c r="G5" s="4" t="n"/>
-      <c r="H5" s="4" t="n"/>
-      <c r="I5" s="4" t="n"/>
-      <c r="J5" s="4" t="n"/>
-      <c r="K5" s="4" t="n"/>
-      <c r="L5" s="4" t="n"/>
-      <c r="N5" s="4" t="n"/>
-      <c r="O5" s="4" t="n"/>
-      <c r="P5" s="4" t="n"/>
-      <c r="Q5" s="4" t="n"/>
-      <c r="R5" s="4" t="n"/>
-      <c r="S5" s="4" t="n"/>
-      <c r="T5" s="4" t="n"/>
-      <c r="U5" s="4" t="n"/>
-      <c r="V5" s="4" t="n"/>
-      <c r="W5" s="5" t="n"/>
-      <c r="X5" s="5" t="n"/>
-      <c r="Y5" s="5" t="n"/>
-      <c r="Z5" s="5" t="n"/>
+    <row r="5" s="14">
+      <c r="A5" s="16" t="n"/>
+      <c r="B5" s="13" t="n"/>
+      <c r="C5" s="13" t="n"/>
+      <c r="D5" s="16" t="n"/>
+      <c r="E5" s="16" t="n"/>
+      <c r="F5" s="16" t="n"/>
+      <c r="G5" s="16" t="n"/>
+      <c r="H5" s="16" t="n"/>
+      <c r="I5" s="13" t="n"/>
+      <c r="J5" s="16" t="n"/>
+      <c r="K5" s="16" t="n"/>
+      <c r="L5" s="16" t="n"/>
+      <c r="N5" s="16" t="n"/>
+      <c r="O5" s="16" t="n"/>
+      <c r="P5" s="16" t="n"/>
+      <c r="Q5" s="16" t="n"/>
+      <c r="R5" s="16" t="n"/>
+      <c r="S5" s="16" t="n"/>
+      <c r="T5" s="16" t="n"/>
+      <c r="U5" s="16" t="n"/>
+      <c r="V5" s="16" t="n"/>
+      <c r="W5" s="17" t="n"/>
+      <c r="X5" s="17" t="n"/>
+      <c r="Y5" s="17" t="n"/>
+      <c r="Z5" s="17" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="n"/>
-      <c r="B6" s="6" t="n"/>
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="7" t="n"/>
-      <c r="F6" s="7" t="n"/>
-      <c r="G6" s="7" t="n"/>
-      <c r="H6" s="8" t="n"/>
-      <c r="I6" s="8" t="n"/>
-      <c r="J6" s="7" t="n"/>
-      <c r="K6" s="7" t="n"/>
+      <c r="A6" s="5" t="n"/>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="6" t="n"/>
+      <c r="F6" s="6" t="n"/>
+      <c r="G6" s="6" t="n"/>
+      <c r="H6" s="7" t="n"/>
+      <c r="I6" s="7" t="n"/>
+      <c r="J6" s="6" t="n"/>
+      <c r="K6" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -667,7 +726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,89 +735,89 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="15" t="inlineStr">
+      <c r="B1" s="18" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="15" t="inlineStr">
+      <c r="C1" s="18" t="inlineStr">
         <is>
           <t>start</t>
         </is>
       </c>
-      <c r="D1" s="15" t="inlineStr">
+      <c r="D1" s="18" t="inlineStr">
         <is>
           <t>strat</t>
         </is>
       </c>
-      <c r="E1" s="15" t="inlineStr">
+      <c r="E1" s="18" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="F1" s="15" t="inlineStr">
+      <c r="F1" s="18" t="inlineStr">
         <is>
           <t>entry</t>
         </is>
       </c>
-      <c r="G1" s="15" t="inlineStr">
+      <c r="G1" s="18" t="inlineStr">
         <is>
           <t>TP</t>
         </is>
       </c>
-      <c r="H1" s="15" t="inlineStr">
+      <c r="H1" s="18" t="inlineStr">
         <is>
           <t>SL</t>
         </is>
       </c>
-      <c r="I1" s="15" t="inlineStr">
+      <c r="I1" s="18" t="inlineStr">
         <is>
           <t>SR</t>
         </is>
       </c>
-      <c r="J1" s="15" t="inlineStr">
+      <c r="J1" s="18" t="inlineStr">
         <is>
           <t>entry_time</t>
         </is>
       </c>
-      <c r="K1" s="15" t="inlineStr">
+      <c r="K1" s="18" t="inlineStr">
         <is>
           <t>outcome</t>
         </is>
       </c>
-      <c r="L1" s="15" t="inlineStr">
+      <c r="L1" s="18" t="inlineStr">
         <is>
           <t>pips</t>
         </is>
       </c>
-      <c r="M1" s="15" t="inlineStr">
+      <c r="M1" s="18" t="inlineStr">
         <is>
           <t>lasttime</t>
         </is>
       </c>
-      <c r="N1" s="15" t="inlineStr">
+      <c r="N1" s="18" t="inlineStr">
         <is>
           <t>pivots</t>
         </is>
       </c>
-      <c r="O1" s="15" t="inlineStr">
+      <c r="O1" s="18" t="inlineStr">
         <is>
           <t>pivots_lasttime</t>
         </is>
       </c>
-      <c r="P1" s="15" t="inlineStr">
+      <c r="P1" s="18" t="inlineStr">
         <is>
           <t>total_score</t>
         </is>
       </c>
-      <c r="Q1" s="15" t="inlineStr">
+      <c r="Q1" s="18" t="inlineStr">
         <is>
           <t>score_lasttime</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="n">
+      <c r="A2" s="18" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -766,7 +825,7 @@
           <t>GBP_AUD 11OCT2018H12</t>
         </is>
       </c>
-      <c r="C2" s="16" t="n">
+      <c r="C2" s="19" t="n">
         <v>43384.875</v>
       </c>
       <c r="D2" t="inlineStr">
@@ -804,12 +863,12 @@
       <c r="L2" t="n">
         <v>207.4</v>
       </c>
-      <c r="M2" s="16" t="n">
+      <c r="M2" s="19" t="n">
         <v>42544.375</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>['28/02/2014:10:00', '10/10/2018:09:00']</t>
+          <t>['10/10/2018:09:00']</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -818,14 +877,14 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>172</v>
+        <v>90</v>
       </c>
       <c r="Q2" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="n">
+      <c r="A3" s="18" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -833,7 +892,7 @@
           <t>EUR_AUD 04DEC2018D</t>
         </is>
       </c>
-      <c r="C3" s="16" t="n">
+      <c r="C3" s="19" t="n">
         <v>43437.91666666666</v>
       </c>
       <c r="D3" t="inlineStr">
@@ -871,12 +930,12 @@
       <c r="L3" t="n">
         <v>141.8</v>
       </c>
-      <c r="M3" s="16" t="n">
+      <c r="M3" s="19" t="n">
         <v>43256.875</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>['28/01/2016:22:00', '03/06/2018:21:00', '29/11/2018:22:00']</t>
+          <t>['29/11/2018:22:00']</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -885,10 +944,85 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="Q3" t="n">
         <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>NZD_USD 07NOV2008D</t>
+        </is>
+      </c>
+      <c r="C4" s="19" t="n">
+        <v>39758.91666666666</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>cont</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.58175</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.53732</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.61258</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.59806</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/tests/data/testCounter.xlsx
+++ b/tests/data/testCounter.xlsx
@@ -21,7 +21,7 @@
     <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
     <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="166"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -51,22 +51,7 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
       <color rgb="FF000000"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF00FF00"/>
       <sz val="12"/>
       <scheme val="minor"/>
     </font>
@@ -94,16 +79,22 @@
       <sz val="12"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <family val="2"/>
       <b val="1"/>
       <sz val="12"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
     </font>
     <font>
       <b val="1"/>
@@ -156,31 +147,28 @@
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -461,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -469,80 +457,69 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="14" width="12.83203125"/>
-    <col customWidth="1" max="2" min="2" style="14" width="22.83203125"/>
-    <col customWidth="1" max="3" min="3" style="14" width="16.5"/>
-    <col customWidth="1" max="4" min="4" style="14" width="21"/>
-    <col customWidth="1" max="9" min="9" style="14" width="10.83203125"/>
-    <col customWidth="1" max="10" min="10" style="14" width="35"/>
-    <col customWidth="1" max="11" min="11" style="14" width="10.83203125"/>
+    <col customWidth="1" max="1" min="1" style="7" width="12.83203125"/>
+    <col customWidth="1" max="2" min="2" style="7" width="22.83203125"/>
+    <col customWidth="1" max="3" min="3" style="7" width="16.5"/>
+    <col customWidth="1" max="4" min="4" style="7" width="21"/>
+    <col customWidth="1" max="9" min="9" style="7" width="10.83203125"/>
+    <col customWidth="1" max="10" min="10" style="7" width="35"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>timeframe</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>strat</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="D1" s="17" t="inlineStr">
+      <c r="D1" s="9" t="inlineStr">
         <is>
           <t>start</t>
         </is>
       </c>
-      <c r="E1" s="17" t="inlineStr">
+      <c r="E1" s="9" t="inlineStr">
         <is>
           <t>entry</t>
         </is>
       </c>
-      <c r="F1" s="17" t="inlineStr">
+      <c r="F1" s="9" t="inlineStr">
         <is>
           <t>SL</t>
         </is>
       </c>
-      <c r="G1" s="17" t="inlineStr">
+      <c r="G1" s="9" t="inlineStr">
         <is>
           <t>TP</t>
         </is>
       </c>
-      <c r="H1" s="17" t="inlineStr">
+      <c r="H1" s="9" t="inlineStr">
         <is>
           <t>SR</t>
         </is>
       </c>
-      <c r="I1" s="17" t="inlineStr">
+      <c r="I1" s="9" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="J1" s="17" t="inlineStr">
-        <is>
-          <t>trend_i</t>
-        </is>
-      </c>
-      <c r="K1" s="17" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="L1" s="17" t="inlineStr">
-        <is>
-          <t>outcome</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="n"/>
+      <c r="J1" s="9" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>H12</t>
         </is>
@@ -557,7 +534,7 @@
           <t>GBP_AUD 11OCT2018H12</t>
         </is>
       </c>
-      <c r="D2" s="9" t="n">
+      <c r="D2" s="5" t="n">
         <v>43384.875</v>
       </c>
       <c r="E2" t="n">
@@ -577,11 +554,8 @@
           <t>short</t>
         </is>
       </c>
-      <c r="J2" s="9" t="n">
-        <v>43320.875</v>
-      </c>
-      <c r="K2" s="10" t="n"/>
-      <c r="AB2" s="3" t="n"/>
+      <c r="J2" s="5" t="n"/>
+      <c r="U2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -599,7 +573,7 @@
           <t>EUR_AUD 04DEC2018D</t>
         </is>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="5" t="n">
         <v>43437.91666666666</v>
       </c>
       <c r="E3" t="n">
@@ -620,8 +594,8 @@
         </is>
       </c>
     </row>
-    <row r="4" s="14">
-      <c r="A4" s="13" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -631,89 +605,94 @@
           <t>cont</t>
         </is>
       </c>
-      <c r="C4" s="13" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>NZD_USD 07NOV2008D</t>
         </is>
       </c>
-      <c r="D4" s="15" t="n">
+      <c r="D4" s="8" t="n">
         <v>39758.91666666666</v>
       </c>
-      <c r="E4" s="13" t="n">
+      <c r="E4" s="6" t="n">
         <v>0.58175</v>
       </c>
-      <c r="F4" s="13" t="n">
+      <c r="F4" s="6" t="n">
         <v>0.61258</v>
       </c>
-      <c r="G4" s="13" t="n">
+      <c r="G4" s="6" t="n">
         <v>0.53732</v>
       </c>
-      <c r="H4" s="13" t="n">
+      <c r="H4" s="6" t="n">
         <v>0.59806</v>
       </c>
-      <c r="I4" s="13" t="inlineStr">
+      <c r="I4" s="6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="J4" s="13" t="n"/>
-      <c r="K4" s="13" t="n"/>
-      <c r="L4" s="13" t="n"/>
-      <c r="M4" s="13" t="n"/>
-      <c r="N4" s="13" t="n"/>
-      <c r="O4" s="13" t="n"/>
-      <c r="P4" s="13" t="n"/>
-      <c r="Q4" s="13" t="n"/>
-      <c r="R4" s="13" t="n"/>
-      <c r="S4" s="13" t="n"/>
-      <c r="T4" s="13" t="n"/>
-      <c r="U4" s="13" t="n"/>
-      <c r="V4" s="13" t="n"/>
-      <c r="W4" s="13" t="n"/>
-      <c r="X4" s="13" t="n"/>
-      <c r="Y4" s="13" t="n"/>
-      <c r="Z4" s="13" t="n"/>
-      <c r="AA4" s="13" t="n"/>
+      <c r="J4" s="6" t="n"/>
+      <c r="K4" s="6" t="n"/>
+      <c r="L4" s="6" t="n"/>
+      <c r="M4" s="6" t="n"/>
+      <c r="N4" s="6" t="n"/>
+      <c r="O4" s="6" t="n"/>
+      <c r="P4" s="6" t="n"/>
+      <c r="Q4" s="6" t="n"/>
+      <c r="R4" s="6" t="n"/>
+      <c r="S4" s="6" t="n"/>
+      <c r="T4" s="6" t="n"/>
     </row>
-    <row r="5" s="14">
-      <c r="A5" s="16" t="n"/>
-      <c r="B5" s="13" t="n"/>
-      <c r="C5" s="13" t="n"/>
-      <c r="D5" s="16" t="n"/>
-      <c r="E5" s="16" t="n"/>
-      <c r="F5" s="16" t="n"/>
-      <c r="G5" s="16" t="n"/>
-      <c r="H5" s="16" t="n"/>
-      <c r="I5" s="13" t="n"/>
-      <c r="J5" s="16" t="n"/>
-      <c r="K5" s="16" t="n"/>
-      <c r="L5" s="16" t="n"/>
-      <c r="N5" s="16" t="n"/>
-      <c r="O5" s="16" t="n"/>
-      <c r="P5" s="16" t="n"/>
-      <c r="Q5" s="16" t="n"/>
-      <c r="R5" s="16" t="n"/>
-      <c r="S5" s="16" t="n"/>
-      <c r="T5" s="16" t="n"/>
-      <c r="U5" s="16" t="n"/>
-      <c r="V5" s="16" t="n"/>
-      <c r="W5" s="17" t="n"/>
-      <c r="X5" s="17" t="n"/>
-      <c r="Y5" s="17" t="n"/>
-      <c r="Z5" s="17" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="n"/>
-      <c r="B6" s="5" t="n"/>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="6" t="n"/>
-      <c r="F6" s="6" t="n"/>
-      <c r="G6" s="6" t="n"/>
-      <c r="H6" s="7" t="n"/>
-      <c r="I6" s="7" t="n"/>
-      <c r="J6" s="6" t="n"/>
-      <c r="K6" s="6" t="n"/>
+    <row r="5" s="7">
+      <c r="A5" s="12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B5" s="13" t="inlineStr">
+        <is>
+          <t>counter</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>CAD_JPY 24APR2007D</t>
+        </is>
+      </c>
+      <c r="D5" s="14" t="n">
+        <v>39195.91666666666</v>
+      </c>
+      <c r="E5" s="12" t="n">
+        <v>105.293</v>
+      </c>
+      <c r="F5" s="12" t="n">
+        <v>106.04</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="H5" s="12" t="n">
+        <v>105.967</v>
+      </c>
+      <c r="I5" s="12" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J5" s="12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K5" s="12" t="n"/>
+      <c r="L5" s="12" t="n"/>
+      <c r="M5" s="12" t="n"/>
+      <c r="N5" s="12" t="n"/>
+      <c r="O5" s="12" t="n"/>
+      <c r="P5" s="12" t="n"/>
+      <c r="Q5" s="12" t="n"/>
+      <c r="R5" s="12" t="n"/>
+      <c r="S5" s="12" t="n"/>
+      <c r="T5" s="12" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -726,7 +705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,89 +714,99 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="18" t="inlineStr">
+      <c r="B1" s="15" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="18" t="inlineStr">
+      <c r="C1" s="15" t="inlineStr">
         <is>
           <t>start</t>
         </is>
       </c>
-      <c r="D1" s="18" t="inlineStr">
+      <c r="D1" s="15" t="inlineStr">
         <is>
           <t>strat</t>
         </is>
       </c>
-      <c r="E1" s="18" t="inlineStr">
+      <c r="E1" s="15" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="F1" s="18" t="inlineStr">
+      <c r="F1" s="15" t="inlineStr">
         <is>
           <t>entry</t>
         </is>
       </c>
-      <c r="G1" s="18" t="inlineStr">
+      <c r="G1" s="15" t="inlineStr">
         <is>
           <t>TP</t>
         </is>
       </c>
-      <c r="H1" s="18" t="inlineStr">
+      <c r="H1" s="15" t="inlineStr">
         <is>
           <t>SL</t>
         </is>
       </c>
-      <c r="I1" s="18" t="inlineStr">
+      <c r="I1" s="15" t="inlineStr">
         <is>
           <t>SR</t>
         </is>
       </c>
-      <c r="J1" s="18" t="inlineStr">
+      <c r="J1" s="15" t="inlineStr">
         <is>
           <t>entry_time</t>
         </is>
       </c>
-      <c r="K1" s="18" t="inlineStr">
+      <c r="K1" s="15" t="inlineStr">
         <is>
           <t>outcome</t>
         </is>
       </c>
-      <c r="L1" s="18" t="inlineStr">
+      <c r="L1" s="15" t="inlineStr">
         <is>
           <t>pips</t>
         </is>
       </c>
-      <c r="M1" s="18" t="inlineStr">
+      <c r="M1" s="15" t="inlineStr">
         <is>
           <t>lasttime</t>
         </is>
       </c>
-      <c r="N1" s="18" t="inlineStr">
+      <c r="N1" s="15" t="inlineStr">
         <is>
           <t>pivots</t>
         </is>
       </c>
-      <c r="O1" s="18" t="inlineStr">
+      <c r="O1" s="15" t="inlineStr">
         <is>
           <t>pivots_lasttime</t>
         </is>
       </c>
-      <c r="P1" s="18" t="inlineStr">
+      <c r="P1" s="15" t="inlineStr">
         <is>
           <t>total_score</t>
         </is>
       </c>
-      <c r="Q1" s="18" t="inlineStr">
+      <c r="Q1" s="15" t="inlineStr">
         <is>
           <t>score_lasttime</t>
+        </is>
+      </c>
+      <c r="R1" s="15" t="inlineStr">
+        <is>
+          <t>score_pivot</t>
+        </is>
+      </c>
+      <c r="S1" s="15" t="inlineStr">
+        <is>
+          <t>score_pivot_lasttime</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="n">
+      <c r="A2" s="15" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -825,7 +814,7 @@
           <t>GBP_AUD 11OCT2018H12</t>
         </is>
       </c>
-      <c r="C2" s="19" t="n">
+      <c r="C2" s="16" t="n">
         <v>43384.875</v>
       </c>
       <c r="D2" t="inlineStr">
@@ -863,7 +852,7 @@
       <c r="L2" t="n">
         <v>207.4</v>
       </c>
-      <c r="M2" s="19" t="n">
+      <c r="M2" s="16" t="n">
         <v>42544.375</v>
       </c>
       <c r="N2" t="inlineStr">
@@ -882,9 +871,15 @@
       <c r="Q2" t="n">
         <v>90</v>
       </c>
+      <c r="R2" t="n">
+        <v>90</v>
+      </c>
+      <c r="S2" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="n">
+      <c r="A3" s="15" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -892,7 +887,7 @@
           <t>EUR_AUD 04DEC2018D</t>
         </is>
       </c>
-      <c r="C3" s="19" t="n">
+      <c r="C3" s="16" t="n">
         <v>43437.91666666666</v>
       </c>
       <c r="D3" t="inlineStr">
@@ -930,8 +925,8 @@
       <c r="L3" t="n">
         <v>141.8</v>
       </c>
-      <c r="M3" s="19" t="n">
-        <v>43256.875</v>
+      <c r="M3" s="16" t="n">
+        <v>43108.91666666666</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -949,9 +944,15 @@
       <c r="Q3" t="n">
         <v>40</v>
       </c>
+      <c r="R3" t="n">
+        <v>40</v>
+      </c>
+      <c r="S3" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="18" t="n">
+      <c r="A4" s="15" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -959,7 +960,7 @@
           <t>NZD_USD 07NOV2008D</t>
         </is>
       </c>
-      <c r="C4" s="19" t="n">
+      <c r="C4" s="16" t="n">
         <v>39758.91666666666</v>
       </c>
       <c r="D4" t="inlineStr">
@@ -1023,6 +1024,89 @@
         <is>
           <t>n.a.</t>
         </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CAD_JPY 24APR2007D</t>
+        </is>
+      </c>
+      <c r="C5" s="16" t="n">
+        <v>39195.91666666666</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>counter</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>105.293</v>
+      </c>
+      <c r="G5" t="n">
+        <v>104.1725</v>
+      </c>
+      <c r="H5" t="n">
+        <v>106.04</v>
+      </c>
+      <c r="I5" t="n">
+        <v>105.967</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2007-04-24T02:00:00</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>failure</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>-74.7</v>
+      </c>
+      <c r="M5" s="16" t="n">
+        <v>38143.875</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>['30/08/2006:21:00', '22/04/2007:21:00']</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>['30/08/2006:21:00', '22/04/2007:21:00']</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>180</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>180</v>
+      </c>
+      <c r="R5" t="n">
+        <v>90</v>
+      </c>
+      <c r="S5" t="n">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/testCounter.xlsx
+++ b/tests/data/testCounter.xlsx
@@ -16,10 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt formatCode="yyyy\-mm\-dd\ hh:mm:ss" numFmtId="164"/>
     <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="166"/>
   </numFmts>
   <fonts count="12">
     <font>
